--- a/AnGroup.services/FruitManager/ExcelFileTemplate/Report_Export.xlsx
+++ b/AnGroup.services/FruitManager/ExcelFileTemplate/Report_Export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUAN\TUAN_GIT\AnGroup\AnGroup.services\FruitManager\ExcelFileTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUAN_GIT\AnGroup\AnGroup.services\FruitManager\ExcelFileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA2344-413A-41C0-89C3-6387BE492CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5D6FC-3FEA-4A8A-A89A-8D120E55F825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{C865E54A-E555-47C0-8220-8D5ADFBEB238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C865E54A-E555-47C0-8220-8D5ADFBEB238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -533,11 +533,11 @@
     <col min="2" max="3" width="20.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
